--- a/backend/sekolah/templates/template_siswa.xlsx
+++ b/backend/sekolah/templates/template_siswa.xlsx
@@ -15,33 +15,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>NIS</t>
-  </si>
-  <si>
-    <t>NISN</t>
-  </si>
-  <si>
-    <t>NamaSiswa</t>
-  </si>
-  <si>
-    <t>TempatLahir</t>
-  </si>
-  <si>
-    <t>TanggalLahir</t>
-  </si>
-  <si>
-    <t>JenisKelamin</t>
-  </si>
-  <si>
-    <t>Agama</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>peserta_didik_id</t>
+  </si>
+  <si>
+    <t>nis</t>
+  </si>
+  <si>
+    <t>nisn</t>
+  </si>
+  <si>
+    <t>nm_siswa</t>
+  </si>
+  <si>
+    <t>tempat_lahir</t>
+  </si>
+  <si>
+    <t>tanggal_lahir</t>
+  </si>
+  <si>
+    <t>jenis_kelamin</t>
+  </si>
+  <si>
+    <t>agama</t>
+  </si>
+  <si>
+    <t>alamat_siswa</t>
+  </si>
+  <si>
+    <t>telepon_siswa</t>
+  </si>
+  <si>
+    <t>diterima_tanggal</t>
+  </si>
+  <si>
+    <t>nm_ayah</t>
+  </si>
+  <si>
+    <t>nm_ibu</t>
+  </si>
+  <si>
+    <t>pekerjaan_ayah</t>
+  </si>
+  <si>
+    <t>pekerjaan_ibu</t>
+  </si>
+  <si>
+    <t>nm_wali</t>
   </si>
   <si>
     <t>Timestamp</t>
   </si>
   <si>
-    <t>2025-02-12 19:17:31</t>
+    <t>2025-02-13 22:07:49</t>
   </si>
   <si>
     <t>UserID</t>
@@ -415,47 +442,73 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
       <c r="Y1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="Z1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y2" t="s">
         <v>17</v>
       </c>
-      <c r="Y2" t="s">
-        <v>8</v>
-      </c>
       <c r="Z2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" objects="true" scenarios="true" formatCells="true" formatColumns="true" formatRows="true" insertColumns="true" insertRows="false" insertHyperlinks="true" deleteColumns="true" deleteRows="true" selectLockedCells="true" sort="true" autoFilter="true" pivotTables="true" selectUnlockedCells="false"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" sqref="F2:F100" type="list">
-      <formula1>"Laki-laki,Perempuan"</formula1>
+    <dataValidation allowBlank="true" sqref="F2:F1000" type="list">
+      <formula1>"L,P"</formula1>
     </dataValidation>
     <dataValidation allowBlank="true" sqref="D2:D100"/>
   </dataValidations>
@@ -471,22 +524,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
